--- a/Fields_Template.xlsx
+++ b/Fields_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvaron\Desktop\Coding\Node.js\SF-custom-fields\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72163F-20EF-4F54-8212-F51571034F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C88DC2-5ED6-4C5D-8E59-3320C4A2B0BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Fields_Template.xlsx
+++ b/Fields_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvaron\Desktop\Coding\Node.js\SF-custom-fields\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B86627-A3D6-4C71-A740-35EB008DB5DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CB757-255A-43A3-A9F4-FCBC1B241859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,7 +1245,9 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
